--- a/files/storage.xlsx
+++ b/files/storage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -20,16 +20,22 @@
     <t>address</t>
   </si>
   <si>
-    <t>mol_id</t>
+    <t>is_closed</t>
   </si>
   <si>
-    <t>Кремлевская 35</t>
+    <t>s</t>
   </si>
   <si>
-    <t>1</t>
+    <t>true</t>
   </si>
   <si>
-    <t>6</t>
+    <t>склад</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -88,8 +94,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.53125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.3671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.93359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -110,8 +116,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -119,10 +125,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -130,10 +136,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
